--- a/data/Wisconsin/Wisconsin.xlsx
+++ b/data/Wisconsin/Wisconsin.xlsx
@@ -7,16 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-21" sheetId="1" r:id="rId1"/>
-    <sheet name="2021-22" sheetId="2" r:id="rId2"/>
-    <sheet name="2022-23" sheetId="3" r:id="rId3"/>
+    <sheet name="2018-19" sheetId="1" r:id="rId1"/>
+    <sheet name="2019-20" sheetId="2" r:id="rId2"/>
+    <sheet name="2020-21" sheetId="3" r:id="rId3"/>
+    <sheet name="2021-22" sheetId="4" r:id="rId4"/>
+    <sheet name="2022-23" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="75">
   <si>
     <t>COUNTY</t>
   </si>
@@ -629,16 +631,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>15.38461538461538</v>
+        <v>28.94736842105263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -649,16 +651,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>25.64102564102564</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -669,16 +671,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D4">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F4">
-        <v>45.92274678111588</v>
+        <v>51.53061224489796</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -689,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>42.85714285714285</v>
+        <v>64.28571428571429</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -709,16 +711,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1856</v>
+        <v>2207</v>
       </c>
       <c r="D6">
-        <v>2933</v>
+        <v>3378</v>
       </c>
       <c r="E6">
-        <v>1963</v>
+        <v>2356</v>
       </c>
       <c r="F6">
-        <v>66.92806000681895</v>
+        <v>69.74541148608644</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -729,16 +731,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>52.17391304347826</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -749,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>57.4074074074074</v>
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -769,16 +771,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="E9">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F9">
-        <v>56.50224215246637</v>
+        <v>58.8235294117647</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -789,16 +791,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="D10">
-        <v>521</v>
+        <v>592</v>
       </c>
       <c r="E10">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="F10">
-        <v>63.14779270633397</v>
+        <v>71.62162162162163</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -809,16 +811,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>11.11111111111111</v>
+        <v>44.82758620689656</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -829,16 +831,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D12">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E12">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="F12">
-        <v>54.02061855670103</v>
+        <v>64.23841059602648</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -849,16 +851,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="D13">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="E13">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F13">
-        <v>35.93220338983051</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -869,16 +871,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>5081</v>
+        <v>5482</v>
       </c>
       <c r="D14">
-        <v>8768</v>
+        <v>9693</v>
       </c>
       <c r="E14">
-        <v>5416</v>
+        <v>7087</v>
       </c>
       <c r="F14">
-        <v>61.77007299270073</v>
+        <v>73.11461879707005</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -889,16 +891,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="D15">
-        <v>446</v>
+        <v>559</v>
       </c>
       <c r="E15">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="F15">
-        <v>53.36322869955157</v>
+        <v>55.6350626118068</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -909,16 +911,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D16">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="E16">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="F16">
-        <v>63.21243523316062</v>
+        <v>67.33870967741936</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -929,16 +931,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="D17">
-        <v>507</v>
+        <v>387</v>
       </c>
       <c r="E17">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F17">
-        <v>45.5621301775148</v>
+        <v>59.17312661498708</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -949,16 +951,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D18">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="E18">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>54.86381322957198</v>
+        <v>69.56521739130434</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -969,16 +971,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>576</v>
+        <v>701</v>
       </c>
       <c r="D19">
-        <v>1104</v>
+        <v>1328</v>
       </c>
       <c r="E19">
-        <v>778</v>
+        <v>1045</v>
       </c>
       <c r="F19">
-        <v>70.47101449275362</v>
+        <v>78.68975903614458</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -989,16 +991,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="D20">
-        <v>659</v>
+        <v>620</v>
       </c>
       <c r="E20">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="F20">
-        <v>51.74506828528073</v>
+        <v>57.58064516129032</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1009,16 +1011,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>62.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1029,16 +1031,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D22">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F22">
-        <v>47.74590163934426</v>
+        <v>51.23042505592841</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1049,16 +1051,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D23">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="E23">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F23">
-        <v>61.76470588235294</v>
+        <v>70.04405286343612</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1069,13 +1071,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -1089,16 +1091,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D25">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F25">
-        <v>61.16504854368932</v>
+        <v>64.08450704225352</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1109,16 +1111,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>27.27272727272728</v>
+        <v>26.47058823529412</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1129,16 +1131,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F27">
-        <v>46</v>
+        <v>37.16814159292036</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1149,16 +1151,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D28">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E28">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="F28">
-        <v>55.57603686635944</v>
+        <v>59.24563017479301</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1169,16 +1171,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D29">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E29">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>46.03174603174603</v>
+        <v>38.67924528301887</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1189,16 +1191,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>1400</v>
+        <v>1502</v>
       </c>
       <c r="D30">
-        <v>2281</v>
+        <v>2460</v>
       </c>
       <c r="E30">
-        <v>1244</v>
+        <v>1530</v>
       </c>
       <c r="F30">
-        <v>54.53748355984217</v>
+        <v>62.19512195121951</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1209,16 +1211,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="D31">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="E31">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="F31">
-        <v>53.02013422818792</v>
+        <v>55.92592592592592</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1229,16 +1231,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="D32">
-        <v>1265</v>
+        <v>1493</v>
       </c>
       <c r="E32">
-        <v>724</v>
+        <v>986</v>
       </c>
       <c r="F32">
-        <v>57.23320158102767</v>
+        <v>66.04152712659075</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1249,16 +1251,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D33">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E33">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F33">
-        <v>29.22077922077922</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1269,16 +1271,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F34">
-        <v>30.15873015873016</v>
+        <v>39.50617283950617</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1289,16 +1291,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="D35">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="E35">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="F35">
-        <v>58.19209039548023</v>
+        <v>63.96396396396396</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1309,16 +1311,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="D36">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="E36">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F36">
-        <v>54.3859649122807</v>
+        <v>47.83861671469741</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1329,16 +1331,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>783</v>
+        <v>712</v>
       </c>
       <c r="D37">
-        <v>1238</v>
+        <v>1150</v>
       </c>
       <c r="E37">
-        <v>720</v>
+        <v>759</v>
       </c>
       <c r="F37">
-        <v>58.15831987075929</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1349,16 +1351,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D38">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="E38">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F38">
-        <v>47.70642201834863</v>
+        <v>43.26241134751773</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1369,16 +1371,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>49.09090909090909</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1389,16 +1391,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>5007</v>
+        <v>5631</v>
       </c>
       <c r="D40">
-        <v>8721</v>
+        <v>9920</v>
       </c>
       <c r="E40">
-        <v>4728</v>
+        <v>5559</v>
       </c>
       <c r="F40">
-        <v>54.2139662882697</v>
+        <v>56.0383064516129</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1409,16 +1411,16 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="D41">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="E41">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="F41">
-        <v>41.1764705882353</v>
+        <v>56.96202531645569</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1429,16 +1431,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D42">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E42">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F42">
-        <v>52.27272727272727</v>
+        <v>44.44444444444444</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1449,16 +1451,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D43">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="E43">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F43">
-        <v>65.625</v>
+        <v>65.20270270270271</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1469,16 +1471,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>1778</v>
+        <v>1924</v>
       </c>
       <c r="D44">
-        <v>2994</v>
+        <v>3321</v>
       </c>
       <c r="E44">
-        <v>1909</v>
+        <v>2284</v>
       </c>
       <c r="F44">
-        <v>63.76085504342017</v>
+        <v>68.774465522433</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1489,16 +1491,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>1603</v>
+        <v>1643</v>
       </c>
       <c r="D45">
-        <v>3110</v>
+        <v>3136</v>
       </c>
       <c r="E45">
-        <v>2143</v>
+        <v>2437</v>
       </c>
       <c r="F45">
-        <v>68.90675241157557</v>
+        <v>77.71045918367346</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1509,16 +1511,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E46">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F46">
-        <v>55.4054054054054</v>
+        <v>51.61290322580645</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1529,16 +1531,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="D47">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="E47">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="F47">
-        <v>63.05555555555556</v>
+        <v>67.62295081967213</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1549,16 +1551,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D48">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="E48">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="F48">
-        <v>53.58361774744027</v>
+        <v>70.51282051282051</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1569,16 +1571,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>404</v>
+        <v>509</v>
       </c>
       <c r="D49">
-        <v>617</v>
+        <v>754</v>
       </c>
       <c r="E49">
-        <v>431</v>
+        <v>549</v>
       </c>
       <c r="F49">
-        <v>69.85413290113452</v>
+        <v>72.81167108753316</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1589,16 +1591,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E50">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F50">
-        <v>64.17910447761194</v>
+        <v>65.59139784946237</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1609,16 +1611,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>870</v>
+        <v>1124</v>
       </c>
       <c r="D51">
-        <v>1507</v>
+        <v>2161</v>
       </c>
       <c r="E51">
-        <v>880</v>
+        <v>1266</v>
       </c>
       <c r="F51">
-        <v>58.39416058394161</v>
+        <v>58.58398889403054</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1629,16 +1631,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D52">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E52">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F52">
-        <v>38.53211009174312</v>
+        <v>69.23076923076923</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1649,16 +1651,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>985</v>
+        <v>1168</v>
       </c>
       <c r="D53">
-        <v>1572</v>
+        <v>1949</v>
       </c>
       <c r="E53">
-        <v>770</v>
+        <v>1114</v>
       </c>
       <c r="F53">
-        <v>48.98218829516539</v>
+        <v>57.15751667521806</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1669,16 +1671,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>20.58823529411765</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1689,16 +1691,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>1114</v>
+        <v>1083</v>
       </c>
       <c r="D55">
-        <v>1637</v>
+        <v>1798</v>
       </c>
       <c r="E55">
-        <v>1082</v>
+        <v>1293</v>
       </c>
       <c r="F55">
-        <v>66.09651802076971</v>
+        <v>71.91323692992214</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1709,16 +1711,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="D56">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E56">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="F56">
-        <v>52.24215246636771</v>
+        <v>56.71140939597316</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1729,16 +1731,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D57">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E57">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F57">
-        <v>25.86206896551724</v>
+        <v>44.89795918367347</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1749,16 +1751,16 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D58">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E58">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F58">
-        <v>39.78494623655914</v>
+        <v>40.8695652173913</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1769,16 +1771,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D59">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="E59">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="F59">
-        <v>58.91016200294551</v>
+        <v>61.32756132756133</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1789,16 +1791,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D60">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E60">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F60">
-        <v>50.79365079365079</v>
+        <v>56.02409638554217</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1809,16 +1811,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D61">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="E61">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F61">
-        <v>51.4018691588785</v>
+        <v>57.38396624472574</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1829,16 +1831,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D62">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="E62">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F62">
-        <v>50.81967213114754</v>
+        <v>62.98701298701299</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1849,16 +1851,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D63">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="E63">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F63">
-        <v>67.44186046511628</v>
+        <v>71.97802197802197</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1869,16 +1871,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>920</v>
+        <v>945</v>
       </c>
       <c r="D64">
-        <v>1509</v>
+        <v>1468</v>
       </c>
       <c r="E64">
-        <v>939</v>
+        <v>878</v>
       </c>
       <c r="F64">
-        <v>62.22664015904572</v>
+        <v>59.80926430517711</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1889,16 +1891,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D65">
         <v>45</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F65">
-        <v>44.44444444444444</v>
+        <v>51.11111111111112</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1909,16 +1911,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>1467</v>
+        <v>1626</v>
       </c>
       <c r="D66">
-        <v>2457</v>
+        <v>3040</v>
       </c>
       <c r="E66">
-        <v>1846</v>
+        <v>2344</v>
       </c>
       <c r="F66">
-        <v>75.13227513227513</v>
+        <v>77.10526315789474</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1929,16 +1931,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>6409</v>
+        <v>6567</v>
       </c>
       <c r="D67">
-        <v>11076</v>
+        <v>11729</v>
       </c>
       <c r="E67">
-        <v>7838</v>
+        <v>8535</v>
       </c>
       <c r="F67">
-        <v>70.76561935716866</v>
+        <v>72.76835194816267</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1949,16 +1951,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="D68">
-        <v>276</v>
+        <v>382</v>
       </c>
       <c r="E68">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F68">
-        <v>49.63768115942029</v>
+        <v>43.45549738219896</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1975,10 +1977,10 @@
         <v>91</v>
       </c>
       <c r="E69">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F69">
-        <v>43.95604395604396</v>
+        <v>48.35164835164835</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1989,16 +1991,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>836</v>
+        <v>882</v>
       </c>
       <c r="D70">
-        <v>1163</v>
+        <v>1137</v>
       </c>
       <c r="E70">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F70">
-        <v>65.09028374892519</v>
+        <v>65.96306068601584</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2009,16 +2011,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>565</v>
+        <v>667</v>
       </c>
       <c r="D71">
-        <v>1045</v>
+        <v>1236</v>
       </c>
       <c r="E71">
-        <v>756</v>
+        <v>931</v>
       </c>
       <c r="F71">
-        <v>72.3444976076555</v>
+        <v>75.32362459546925</v>
       </c>
     </row>
   </sheetData>
@@ -2059,16 +2061,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>17.30769230769231</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2079,16 +2081,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>62.5</v>
+        <v>48.27586206896552</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2099,16 +2101,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D4">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E4">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F4">
-        <v>53.98230088495576</v>
+        <v>51.92307692307692</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2119,16 +2121,16 @@
         <v>8</v>
       </c>
       <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
       <c r="F5">
-        <v>60</v>
+        <v>47.05882352941177</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2139,16 +2141,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1859</v>
+        <v>2201</v>
       </c>
       <c r="D6">
-        <v>2949</v>
+        <v>3473</v>
       </c>
       <c r="E6">
-        <v>2114</v>
+        <v>2340</v>
       </c>
       <c r="F6">
-        <v>71.68531705662937</v>
+        <v>67.37690757270371</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2159,16 +2161,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>67.56756756756756</v>
+        <v>69.38775510204081</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2179,16 +2181,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F8">
-        <v>70.3125</v>
+        <v>66.31578947368421</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2199,16 +2201,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D9">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="E9">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F9">
-        <v>62.75862068965517</v>
+        <v>66.26016260162602</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2219,16 +2221,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="D10">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="E10">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="F10">
-        <v>63.4297520661157</v>
+        <v>68.47826086956522</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2239,16 +2241,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>23.80952380952381</v>
+        <v>26.08695652173913</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2259,16 +2261,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="D12">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F12">
-        <v>60.48387096774194</v>
+        <v>59.3984962406015</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2279,16 +2281,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="D13">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="E13">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="F13">
-        <v>39.04382470119522</v>
+        <v>44.8377581120944</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2299,16 +2301,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>5245</v>
+        <v>5612</v>
       </c>
       <c r="D14">
-        <v>9088</v>
+        <v>9786</v>
       </c>
       <c r="E14">
-        <v>6296</v>
+        <v>6978</v>
       </c>
       <c r="F14">
-        <v>69.27816901408451</v>
+        <v>71.30594727161251</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2319,16 +2321,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D15">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="E15">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="F15">
-        <v>53.16455696202532</v>
+        <v>70.76023391812865</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2339,16 +2341,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D16">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E16">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="F16">
-        <v>75.11111111111111</v>
+        <v>65.68627450980392</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2359,16 +2361,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D17">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="E17">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F17">
-        <v>54.01459854014598</v>
+        <v>61.25356125356125</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2379,16 +2381,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D18">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="E18">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F18">
-        <v>71.01449275362319</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2399,16 +2401,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D19">
-        <v>1217</v>
+        <v>1304</v>
       </c>
       <c r="E19">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="F19">
-        <v>73.54149548069022</v>
+        <v>71.16564417177914</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2419,16 +2421,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D20">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="E20">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="F20">
-        <v>53.0949105914718</v>
+        <v>57.93010752688172</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2439,16 +2441,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>93.75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2459,16 +2461,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D22">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="E22">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="F22">
-        <v>65.10538641686183</v>
+        <v>54.12026726057906</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2479,16 +2481,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D23">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E23">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F23">
-        <v>63.06306306306306</v>
+        <v>68.63636363636364</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2499,16 +2501,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>76.66666666666667</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2519,16 +2521,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D25">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="E25">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F25">
-        <v>71.69811320754717</v>
+        <v>59.33333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2539,16 +2541,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>14</v>
       </c>
       <c r="F26">
-        <v>53.84615384615385</v>
+        <v>63.63636363636363</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2559,16 +2561,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E27">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F27">
-        <v>33.33333333333334</v>
+        <v>44.32989690721649</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2579,16 +2581,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="D28">
-        <v>1056</v>
+        <v>984</v>
       </c>
       <c r="E28">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="F28">
-        <v>60.89015151515152</v>
+        <v>63.51626016260163</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2599,16 +2601,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D29">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E29">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F29">
-        <v>38.59649122807018</v>
+        <v>42.5925925925926</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2619,16 +2621,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>1274</v>
+        <v>1600</v>
       </c>
       <c r="D30">
-        <v>1998</v>
+        <v>2471</v>
       </c>
       <c r="E30">
-        <v>1251</v>
+        <v>1458</v>
       </c>
       <c r="F30">
-        <v>62.61261261261262</v>
+        <v>59.00445163901254</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2639,16 +2641,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D31">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F31">
-        <v>75.78125</v>
+        <v>61.29032258064516</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2659,16 +2661,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>692</v>
+        <v>765</v>
       </c>
       <c r="D32">
-        <v>1167</v>
+        <v>1297</v>
       </c>
       <c r="E32">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="F32">
-        <v>63.6675235646958</v>
+        <v>61.06399383191982</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2679,16 +2681,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D33">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E33">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F33">
-        <v>44.06779661016949</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2699,16 +2701,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E34">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F34">
-        <v>52.27272727272727</v>
+        <v>55.55555555555556</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2719,16 +2721,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="D35">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="E35">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="F35">
-        <v>64.03508771929825</v>
+        <v>64.37908496732027</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2739,16 +2741,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="E36">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F36">
-        <v>54.94186046511628</v>
+        <v>61.51315789473684</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2759,16 +2761,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>738</v>
+        <v>785</v>
       </c>
       <c r="D37">
-        <v>1199</v>
+        <v>1284</v>
       </c>
       <c r="E37">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="F37">
-        <v>69.47456213511259</v>
+        <v>65.34267912772586</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2779,16 +2781,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D38">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="E38">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>54.10958904109589</v>
+        <v>51.89873417721519</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2799,16 +2801,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>58.69565217391305</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2819,16 +2821,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>5415</v>
+        <v>5199</v>
       </c>
       <c r="D40">
-        <v>9300</v>
+        <v>9050</v>
       </c>
       <c r="E40">
-        <v>5273</v>
+        <v>5552</v>
       </c>
       <c r="F40">
-        <v>56.69892473118279</v>
+        <v>61.34806629834255</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2839,16 +2841,16 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D41">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="E41">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F41">
-        <v>60.51660516605166</v>
+        <v>46.10169491525424</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2859,16 +2861,16 @@
         <v>45</v>
       </c>
       <c r="C42">
+        <v>65</v>
+      </c>
+      <c r="D42">
         <v>74</v>
       </c>
-      <c r="D42">
-        <v>97</v>
-      </c>
       <c r="E42">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>44.32989690721649</v>
+        <v>40.54054054054054</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2879,16 +2881,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D43">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E43">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F43">
-        <v>59.06593406593407</v>
+        <v>63.76404494382022</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2899,16 +2901,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>1757</v>
+        <v>1923</v>
       </c>
       <c r="D44">
-        <v>2875</v>
+        <v>3279</v>
       </c>
       <c r="E44">
-        <v>1997</v>
+        <v>2285</v>
       </c>
       <c r="F44">
-        <v>69.46086956521739</v>
+        <v>69.68587984141507</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2919,16 +2921,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>1650</v>
+        <v>1675</v>
       </c>
       <c r="D45">
-        <v>3216</v>
+        <v>3158</v>
       </c>
       <c r="E45">
-        <v>2367</v>
+        <v>2398</v>
       </c>
       <c r="F45">
-        <v>73.60074626865672</v>
+        <v>75.9341355288157</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2939,16 +2941,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D46">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F46">
-        <v>48.83720930232558</v>
+        <v>57.14285714285715</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2959,16 +2961,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="D47">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="E47">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="F47">
-        <v>66.58163265306122</v>
+        <v>65.19823788546256</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2979,16 +2981,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="D48">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="E48">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F48">
-        <v>56.26666666666667</v>
+        <v>58.63095238095238</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2999,16 +3001,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="D49">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="E49">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="F49">
-        <v>70.92846270928463</v>
+        <v>60.69364161849711</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3019,16 +3021,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D50">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E50">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50">
-        <v>67.0886075949367</v>
+        <v>56.52173913043478</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3039,16 +3041,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>909</v>
+        <v>1043</v>
       </c>
       <c r="D51">
-        <v>1566</v>
+        <v>1801</v>
       </c>
       <c r="E51">
-        <v>889</v>
+        <v>1056</v>
       </c>
       <c r="F51">
-        <v>56.76883780332057</v>
+        <v>58.6340921710161</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3059,16 +3061,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D52">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F52">
-        <v>45.97701149425287</v>
+        <v>46.72131147540984</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3079,16 +3081,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>988</v>
+        <v>1112</v>
       </c>
       <c r="D53">
-        <v>1496</v>
+        <v>1780</v>
       </c>
       <c r="E53">
-        <v>894</v>
+        <v>1050</v>
       </c>
       <c r="F53">
-        <v>59.75935828877005</v>
+        <v>58.98876404494382</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3099,16 +3101,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54">
-        <v>40</v>
+        <v>47.36842105263158</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3119,16 +3121,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>1096</v>
+        <v>1009</v>
       </c>
       <c r="D55">
-        <v>1704</v>
+        <v>1599</v>
       </c>
       <c r="E55">
-        <v>1189</v>
+        <v>1102</v>
       </c>
       <c r="F55">
-        <v>69.77699530516432</v>
+        <v>68.91807379612257</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3139,16 +3141,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="D56">
-        <v>907</v>
+        <v>1046</v>
       </c>
       <c r="E56">
-        <v>518</v>
+        <v>612</v>
       </c>
       <c r="F56">
-        <v>57.11135611907387</v>
+        <v>58.50860420650096</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3159,16 +3161,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D57">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E57">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F57">
-        <v>36.98630136986301</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3179,16 +3181,16 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E58">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F58">
-        <v>39</v>
+        <v>34.74576271186441</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3199,16 +3201,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="D59">
-        <v>744</v>
+        <v>696</v>
       </c>
       <c r="E59">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F59">
-        <v>55.51075268817204</v>
+        <v>59.91379310344828</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3219,16 +3221,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D60">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E60">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F60">
-        <v>60.13986013986014</v>
+        <v>59.52380952380953</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3239,16 +3241,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="E61">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F61">
-        <v>49.70059880239521</v>
+        <v>56.68449197860963</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3259,16 +3261,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D62">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E62">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F62">
-        <v>55.8282208588957</v>
+        <v>64.70588235294117</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3279,16 +3281,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D63">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E63">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F63">
-        <v>77.47747747747748</v>
+        <v>79.13669064748201</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3299,16 +3301,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>962</v>
+        <v>931</v>
       </c>
       <c r="D64">
-        <v>1511</v>
+        <v>1439</v>
       </c>
       <c r="E64">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="F64">
-        <v>59.82792852415619</v>
+        <v>60.87560806115358</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3319,16 +3321,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D65">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F65">
-        <v>58.8235294117647</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3339,16 +3341,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>1424</v>
+        <v>1532</v>
       </c>
       <c r="D66">
-        <v>2416</v>
+        <v>2750</v>
       </c>
       <c r="E66">
-        <v>1850</v>
+        <v>2037</v>
       </c>
       <c r="F66">
-        <v>76.5728476821192</v>
+        <v>74.07272727272728</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3359,16 +3361,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>6329</v>
+        <v>6586</v>
       </c>
       <c r="D67">
-        <v>11029</v>
+        <v>11506</v>
       </c>
       <c r="E67">
-        <v>8202</v>
+        <v>8412</v>
       </c>
       <c r="F67">
-        <v>74.36757638951855</v>
+        <v>73.109681905093</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3379,16 +3381,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D68">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E68">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F68">
-        <v>63.44647519582245</v>
+        <v>53.09973045822103</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3399,16 +3401,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D69">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E69">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F69">
-        <v>36.36363636363637</v>
+        <v>39.84375</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3419,16 +3421,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>809</v>
+        <v>1012</v>
       </c>
       <c r="D70">
-        <v>1106</v>
+        <v>1338</v>
       </c>
       <c r="E70">
-        <v>807</v>
+        <v>939</v>
       </c>
       <c r="F70">
-        <v>72.96564195298373</v>
+        <v>70.17937219730942</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3439,16 +3441,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>552</v>
+        <v>689</v>
       </c>
       <c r="D71">
-        <v>943</v>
+        <v>1303</v>
       </c>
       <c r="E71">
-        <v>692</v>
+        <v>914</v>
       </c>
       <c r="F71">
-        <v>73.38282078472959</v>
+        <v>70.1458173445894</v>
       </c>
     </row>
   </sheetData>
@@ -3457,6 +3459,2866 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>15.38461538461538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>25.64102564102564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>143</v>
+      </c>
+      <c r="D4">
+        <v>233</v>
+      </c>
+      <c r="E4">
+        <v>107</v>
+      </c>
+      <c r="F4">
+        <v>45.92274678111588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>42.85714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1856</v>
+      </c>
+      <c r="D6">
+        <v>2933</v>
+      </c>
+      <c r="E6">
+        <v>1963</v>
+      </c>
+      <c r="F6">
+        <v>66.92806000681895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>52.17391304347826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>57.4074074074074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>165</v>
+      </c>
+      <c r="D9">
+        <v>223</v>
+      </c>
+      <c r="E9">
+        <v>126</v>
+      </c>
+      <c r="F9">
+        <v>56.50224215246637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>395</v>
+      </c>
+      <c r="D10">
+        <v>521</v>
+      </c>
+      <c r="E10">
+        <v>329</v>
+      </c>
+      <c r="F10">
+        <v>63.14779270633397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>325</v>
+      </c>
+      <c r="D12">
+        <v>485</v>
+      </c>
+      <c r="E12">
+        <v>262</v>
+      </c>
+      <c r="F12">
+        <v>54.02061855670103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>164</v>
+      </c>
+      <c r="D13">
+        <v>295</v>
+      </c>
+      <c r="E13">
+        <v>106</v>
+      </c>
+      <c r="F13">
+        <v>35.93220338983051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>5081</v>
+      </c>
+      <c r="D14">
+        <v>8768</v>
+      </c>
+      <c r="E14">
+        <v>5416</v>
+      </c>
+      <c r="F14">
+        <v>61.77007299270073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>277</v>
+      </c>
+      <c r="D15">
+        <v>446</v>
+      </c>
+      <c r="E15">
+        <v>238</v>
+      </c>
+      <c r="F15">
+        <v>53.36322869955157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>123</v>
+      </c>
+      <c r="D16">
+        <v>193</v>
+      </c>
+      <c r="E16">
+        <v>122</v>
+      </c>
+      <c r="F16">
+        <v>63.21243523316062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>325</v>
+      </c>
+      <c r="D17">
+        <v>507</v>
+      </c>
+      <c r="E17">
+        <v>231</v>
+      </c>
+      <c r="F17">
+        <v>45.5621301775148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>181</v>
+      </c>
+      <c r="D18">
+        <v>257</v>
+      </c>
+      <c r="E18">
+        <v>141</v>
+      </c>
+      <c r="F18">
+        <v>54.86381322957198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>576</v>
+      </c>
+      <c r="D19">
+        <v>1104</v>
+      </c>
+      <c r="E19">
+        <v>778</v>
+      </c>
+      <c r="F19">
+        <v>70.47101449275362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>454</v>
+      </c>
+      <c r="D20">
+        <v>659</v>
+      </c>
+      <c r="E20">
+        <v>341</v>
+      </c>
+      <c r="F20">
+        <v>51.74506828528073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>327</v>
+      </c>
+      <c r="D22">
+        <v>488</v>
+      </c>
+      <c r="E22">
+        <v>233</v>
+      </c>
+      <c r="F22">
+        <v>47.74590163934426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>143</v>
+      </c>
+      <c r="D23">
+        <v>204</v>
+      </c>
+      <c r="E23">
+        <v>126</v>
+      </c>
+      <c r="F23">
+        <v>61.76470588235294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>103</v>
+      </c>
+      <c r="E25">
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <v>61.16504854368932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>27.27272727272728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>671</v>
+      </c>
+      <c r="D28">
+        <v>1085</v>
+      </c>
+      <c r="E28">
+        <v>603</v>
+      </c>
+      <c r="F28">
+        <v>55.57603686635944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>126</v>
+      </c>
+      <c r="E29">
+        <v>58</v>
+      </c>
+      <c r="F29">
+        <v>46.03174603174603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>1400</v>
+      </c>
+      <c r="D30">
+        <v>2281</v>
+      </c>
+      <c r="E30">
+        <v>1244</v>
+      </c>
+      <c r="F30">
+        <v>54.53748355984217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>111</v>
+      </c>
+      <c r="D31">
+        <v>149</v>
+      </c>
+      <c r="E31">
+        <v>79</v>
+      </c>
+      <c r="F31">
+        <v>53.02013422818792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>761</v>
+      </c>
+      <c r="D32">
+        <v>1265</v>
+      </c>
+      <c r="E32">
+        <v>724</v>
+      </c>
+      <c r="F32">
+        <v>57.23320158102767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>154</v>
+      </c>
+      <c r="E33">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>29.22077922077922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>63</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>30.15873015873016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>130</v>
+      </c>
+      <c r="D35">
+        <v>177</v>
+      </c>
+      <c r="E35">
+        <v>103</v>
+      </c>
+      <c r="F35">
+        <v>58.19209039548023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>209</v>
+      </c>
+      <c r="D36">
+        <v>285</v>
+      </c>
+      <c r="E36">
+        <v>155</v>
+      </c>
+      <c r="F36">
+        <v>54.3859649122807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>783</v>
+      </c>
+      <c r="D37">
+        <v>1238</v>
+      </c>
+      <c r="E37">
+        <v>720</v>
+      </c>
+      <c r="F37">
+        <v>58.15831987075929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>87</v>
+      </c>
+      <c r="D38">
+        <v>109</v>
+      </c>
+      <c r="E38">
+        <v>52</v>
+      </c>
+      <c r="F38">
+        <v>47.70642201834863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>5007</v>
+      </c>
+      <c r="D40">
+        <v>8721</v>
+      </c>
+      <c r="E40">
+        <v>4728</v>
+      </c>
+      <c r="F40">
+        <v>54.2139662882697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>138</v>
+      </c>
+      <c r="D41">
+        <v>221</v>
+      </c>
+      <c r="E41">
+        <v>91</v>
+      </c>
+      <c r="F41">
+        <v>41.1764705882353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>71</v>
+      </c>
+      <c r="D42">
+        <v>88</v>
+      </c>
+      <c r="E42">
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <v>52.27272727272727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>207</v>
+      </c>
+      <c r="D43">
+        <v>320</v>
+      </c>
+      <c r="E43">
+        <v>210</v>
+      </c>
+      <c r="F43">
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>1778</v>
+      </c>
+      <c r="D44">
+        <v>2994</v>
+      </c>
+      <c r="E44">
+        <v>1909</v>
+      </c>
+      <c r="F44">
+        <v>63.76085504342017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>1603</v>
+      </c>
+      <c r="D45">
+        <v>3110</v>
+      </c>
+      <c r="E45">
+        <v>2143</v>
+      </c>
+      <c r="F45">
+        <v>68.90675241157557</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>74</v>
+      </c>
+      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="F46">
+        <v>55.4054054054054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>268</v>
+      </c>
+      <c r="D47">
+        <v>360</v>
+      </c>
+      <c r="E47">
+        <v>227</v>
+      </c>
+      <c r="F47">
+        <v>63.05555555555556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>223</v>
+      </c>
+      <c r="D48">
+        <v>293</v>
+      </c>
+      <c r="E48">
+        <v>157</v>
+      </c>
+      <c r="F48">
+        <v>53.58361774744027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>404</v>
+      </c>
+      <c r="D49">
+        <v>617</v>
+      </c>
+      <c r="E49">
+        <v>431</v>
+      </c>
+      <c r="F49">
+        <v>69.85413290113452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>67</v>
+      </c>
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>64.17910447761194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>870</v>
+      </c>
+      <c r="D51">
+        <v>1507</v>
+      </c>
+      <c r="E51">
+        <v>880</v>
+      </c>
+      <c r="F51">
+        <v>58.39416058394161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>109</v>
+      </c>
+      <c r="E52">
+        <v>42</v>
+      </c>
+      <c r="F52">
+        <v>38.53211009174312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>985</v>
+      </c>
+      <c r="D53">
+        <v>1572</v>
+      </c>
+      <c r="E53">
+        <v>770</v>
+      </c>
+      <c r="F53">
+        <v>48.98218829516539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>1114</v>
+      </c>
+      <c r="D55">
+        <v>1637</v>
+      </c>
+      <c r="E55">
+        <v>1082</v>
+      </c>
+      <c r="F55">
+        <v>66.09651802076971</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>574</v>
+      </c>
+      <c r="D56">
+        <v>892</v>
+      </c>
+      <c r="E56">
+        <v>466</v>
+      </c>
+      <c r="F56">
+        <v>52.24215246636771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>53</v>
+      </c>
+      <c r="D57">
+        <v>58</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>25.86206896551724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>77</v>
+      </c>
+      <c r="D58">
+        <v>93</v>
+      </c>
+      <c r="E58">
+        <v>37</v>
+      </c>
+      <c r="F58">
+        <v>39.78494623655914</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>494</v>
+      </c>
+      <c r="D59">
+        <v>679</v>
+      </c>
+      <c r="E59">
+        <v>400</v>
+      </c>
+      <c r="F59">
+        <v>58.91016200294551</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>104</v>
+      </c>
+      <c r="D60">
+        <v>126</v>
+      </c>
+      <c r="E60">
+        <v>64</v>
+      </c>
+      <c r="F60">
+        <v>50.79365079365079</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>149</v>
+      </c>
+      <c r="D61">
+        <v>214</v>
+      </c>
+      <c r="E61">
+        <v>110</v>
+      </c>
+      <c r="F61">
+        <v>51.4018691588785</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>131</v>
+      </c>
+      <c r="D62">
+        <v>183</v>
+      </c>
+      <c r="E62">
+        <v>93</v>
+      </c>
+      <c r="F62">
+        <v>50.81967213114754</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>78</v>
+      </c>
+      <c r="D63">
+        <v>129</v>
+      </c>
+      <c r="E63">
+        <v>87</v>
+      </c>
+      <c r="F63">
+        <v>67.44186046511628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>920</v>
+      </c>
+      <c r="D64">
+        <v>1509</v>
+      </c>
+      <c r="E64">
+        <v>939</v>
+      </c>
+      <c r="F64">
+        <v>62.22664015904572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>37</v>
+      </c>
+      <c r="D65">
+        <v>45</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <v>44.44444444444444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>1467</v>
+      </c>
+      <c r="D66">
+        <v>2457</v>
+      </c>
+      <c r="E66">
+        <v>1846</v>
+      </c>
+      <c r="F66">
+        <v>75.13227513227513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>6409</v>
+      </c>
+      <c r="D67">
+        <v>11076</v>
+      </c>
+      <c r="E67">
+        <v>7838</v>
+      </c>
+      <c r="F67">
+        <v>70.76561935716866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>184</v>
+      </c>
+      <c r="D68">
+        <v>276</v>
+      </c>
+      <c r="E68">
+        <v>137</v>
+      </c>
+      <c r="F68">
+        <v>49.63768115942029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <v>64</v>
+      </c>
+      <c r="D69">
+        <v>91</v>
+      </c>
+      <c r="E69">
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <v>43.95604395604396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>836</v>
+      </c>
+      <c r="D70">
+        <v>1163</v>
+      </c>
+      <c r="E70">
+        <v>757</v>
+      </c>
+      <c r="F70">
+        <v>65.09028374892519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>565</v>
+      </c>
+      <c r="D71">
+        <v>1045</v>
+      </c>
+      <c r="E71">
+        <v>756</v>
+      </c>
+      <c r="F71">
+        <v>72.3444976076555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>17.30769230769231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+      <c r="D4">
+        <v>226</v>
+      </c>
+      <c r="E4">
+        <v>122</v>
+      </c>
+      <c r="F4">
+        <v>53.98230088495576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1859</v>
+      </c>
+      <c r="D6">
+        <v>2949</v>
+      </c>
+      <c r="E6">
+        <v>2114</v>
+      </c>
+      <c r="F6">
+        <v>71.68531705662937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>67.56756756756756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>202</v>
+      </c>
+      <c r="D9">
+        <v>290</v>
+      </c>
+      <c r="E9">
+        <v>182</v>
+      </c>
+      <c r="F9">
+        <v>62.75862068965517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>376</v>
+      </c>
+      <c r="D10">
+        <v>484</v>
+      </c>
+      <c r="E10">
+        <v>307</v>
+      </c>
+      <c r="F10">
+        <v>63.4297520661157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>346</v>
+      </c>
+      <c r="D12">
+        <v>496</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>60.48387096774194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>251</v>
+      </c>
+      <c r="E13">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>39.04382470119522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>5245</v>
+      </c>
+      <c r="D14">
+        <v>9088</v>
+      </c>
+      <c r="E14">
+        <v>6296</v>
+      </c>
+      <c r="F14">
+        <v>69.27816901408451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>304</v>
+      </c>
+      <c r="D15">
+        <v>474</v>
+      </c>
+      <c r="E15">
+        <v>252</v>
+      </c>
+      <c r="F15">
+        <v>53.16455696202532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>123</v>
+      </c>
+      <c r="D16">
+        <v>225</v>
+      </c>
+      <c r="E16">
+        <v>169</v>
+      </c>
+      <c r="F16">
+        <v>75.11111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>271</v>
+      </c>
+      <c r="D17">
+        <v>411</v>
+      </c>
+      <c r="E17">
+        <v>222</v>
+      </c>
+      <c r="F17">
+        <v>54.01459854014598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>151</v>
+      </c>
+      <c r="D18">
+        <v>207</v>
+      </c>
+      <c r="E18">
+        <v>147</v>
+      </c>
+      <c r="F18">
+        <v>71.01449275362319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>674</v>
+      </c>
+      <c r="D19">
+        <v>1217</v>
+      </c>
+      <c r="E19">
+        <v>895</v>
+      </c>
+      <c r="F19">
+        <v>73.54149548069022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>488</v>
+      </c>
+      <c r="D20">
+        <v>727</v>
+      </c>
+      <c r="E20">
+        <v>386</v>
+      </c>
+      <c r="F20">
+        <v>53.0949105914718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>279</v>
+      </c>
+      <c r="D22">
+        <v>427</v>
+      </c>
+      <c r="E22">
+        <v>278</v>
+      </c>
+      <c r="F22">
+        <v>65.10538641686183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>159</v>
+      </c>
+      <c r="D23">
+        <v>222</v>
+      </c>
+      <c r="E23">
+        <v>140</v>
+      </c>
+      <c r="F23">
+        <v>63.06306306306306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>76.66666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <v>106</v>
+      </c>
+      <c r="E25">
+        <v>76</v>
+      </c>
+      <c r="F25">
+        <v>71.69811320754717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>53.84615384615385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>66</v>
+      </c>
+      <c r="E27">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>33.33333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>637</v>
+      </c>
+      <c r="D28">
+        <v>1056</v>
+      </c>
+      <c r="E28">
+        <v>643</v>
+      </c>
+      <c r="F28">
+        <v>60.89015151515152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>114</v>
+      </c>
+      <c r="E29">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>38.59649122807018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>1274</v>
+      </c>
+      <c r="D30">
+        <v>1998</v>
+      </c>
+      <c r="E30">
+        <v>1251</v>
+      </c>
+      <c r="F30">
+        <v>62.61261261261262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>128</v>
+      </c>
+      <c r="E31">
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <v>75.78125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>692</v>
+      </c>
+      <c r="D32">
+        <v>1167</v>
+      </c>
+      <c r="E32">
+        <v>743</v>
+      </c>
+      <c r="F32">
+        <v>63.6675235646958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>85</v>
+      </c>
+      <c r="D33">
+        <v>118</v>
+      </c>
+      <c r="E33">
+        <v>52</v>
+      </c>
+      <c r="F33">
+        <v>44.06779661016949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>52.27272727272727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>152</v>
+      </c>
+      <c r="D35">
+        <v>228</v>
+      </c>
+      <c r="E35">
+        <v>146</v>
+      </c>
+      <c r="F35">
+        <v>64.03508771929825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>232</v>
+      </c>
+      <c r="D36">
+        <v>344</v>
+      </c>
+      <c r="E36">
+        <v>189</v>
+      </c>
+      <c r="F36">
+        <v>54.94186046511628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>738</v>
+      </c>
+      <c r="D37">
+        <v>1199</v>
+      </c>
+      <c r="E37">
+        <v>833</v>
+      </c>
+      <c r="F37">
+        <v>69.47456213511259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>117</v>
+      </c>
+      <c r="D38">
+        <v>146</v>
+      </c>
+      <c r="E38">
+        <v>79</v>
+      </c>
+      <c r="F38">
+        <v>54.10958904109589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>27</v>
+      </c>
+      <c r="F39">
+        <v>58.69565217391305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>5415</v>
+      </c>
+      <c r="D40">
+        <v>9300</v>
+      </c>
+      <c r="E40">
+        <v>5273</v>
+      </c>
+      <c r="F40">
+        <v>56.69892473118279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>135</v>
+      </c>
+      <c r="D41">
+        <v>271</v>
+      </c>
+      <c r="E41">
+        <v>164</v>
+      </c>
+      <c r="F41">
+        <v>60.51660516605166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <v>97</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>44.32989690721649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>223</v>
+      </c>
+      <c r="D43">
+        <v>364</v>
+      </c>
+      <c r="E43">
+        <v>215</v>
+      </c>
+      <c r="F43">
+        <v>59.06593406593407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>1757</v>
+      </c>
+      <c r="D44">
+        <v>2875</v>
+      </c>
+      <c r="E44">
+        <v>1997</v>
+      </c>
+      <c r="F44">
+        <v>69.46086956521739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>1650</v>
+      </c>
+      <c r="D45">
+        <v>3216</v>
+      </c>
+      <c r="E45">
+        <v>2367</v>
+      </c>
+      <c r="F45">
+        <v>73.60074626865672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>21</v>
+      </c>
+      <c r="F46">
+        <v>48.83720930232558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>278</v>
+      </c>
+      <c r="D47">
+        <v>392</v>
+      </c>
+      <c r="E47">
+        <v>261</v>
+      </c>
+      <c r="F47">
+        <v>66.58163265306122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>271</v>
+      </c>
+      <c r="D48">
+        <v>375</v>
+      </c>
+      <c r="E48">
+        <v>211</v>
+      </c>
+      <c r="F48">
+        <v>56.26666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>430</v>
+      </c>
+      <c r="D49">
+        <v>657</v>
+      </c>
+      <c r="E49">
+        <v>466</v>
+      </c>
+      <c r="F49">
+        <v>70.92846270928463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>79</v>
+      </c>
+      <c r="E50">
+        <v>53</v>
+      </c>
+      <c r="F50">
+        <v>67.0886075949367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>909</v>
+      </c>
+      <c r="D51">
+        <v>1566</v>
+      </c>
+      <c r="E51">
+        <v>889</v>
+      </c>
+      <c r="F51">
+        <v>56.76883780332057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>87</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>45.97701149425287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>988</v>
+      </c>
+      <c r="D53">
+        <v>1496</v>
+      </c>
+      <c r="E53">
+        <v>894</v>
+      </c>
+      <c r="F53">
+        <v>59.75935828877005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>1096</v>
+      </c>
+      <c r="D55">
+        <v>1704</v>
+      </c>
+      <c r="E55">
+        <v>1189</v>
+      </c>
+      <c r="F55">
+        <v>69.77699530516432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>600</v>
+      </c>
+      <c r="D56">
+        <v>907</v>
+      </c>
+      <c r="E56">
+        <v>518</v>
+      </c>
+      <c r="F56">
+        <v>57.11135611907387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>73</v>
+      </c>
+      <c r="E57">
+        <v>27</v>
+      </c>
+      <c r="F57">
+        <v>36.98630136986301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>79</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>39</v>
+      </c>
+      <c r="F58">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>532</v>
+      </c>
+      <c r="D59">
+        <v>744</v>
+      </c>
+      <c r="E59">
+        <v>413</v>
+      </c>
+      <c r="F59">
+        <v>55.51075268817204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>117</v>
+      </c>
+      <c r="D60">
+        <v>143</v>
+      </c>
+      <c r="E60">
+        <v>86</v>
+      </c>
+      <c r="F60">
+        <v>60.13986013986014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>139</v>
+      </c>
+      <c r="D61">
+        <v>167</v>
+      </c>
+      <c r="E61">
+        <v>83</v>
+      </c>
+      <c r="F61">
+        <v>49.70059880239521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>122</v>
+      </c>
+      <c r="D62">
+        <v>163</v>
+      </c>
+      <c r="E62">
+        <v>91</v>
+      </c>
+      <c r="F62">
+        <v>55.8282208588957</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>73</v>
+      </c>
+      <c r="D63">
+        <v>111</v>
+      </c>
+      <c r="E63">
+        <v>86</v>
+      </c>
+      <c r="F63">
+        <v>77.47747747747748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>962</v>
+      </c>
+      <c r="D64">
+        <v>1511</v>
+      </c>
+      <c r="E64">
+        <v>904</v>
+      </c>
+      <c r="F64">
+        <v>59.82792852415619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>31</v>
+      </c>
+      <c r="D65">
+        <v>34</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <v>58.8235294117647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>1424</v>
+      </c>
+      <c r="D66">
+        <v>2416</v>
+      </c>
+      <c r="E66">
+        <v>1850</v>
+      </c>
+      <c r="F66">
+        <v>76.5728476821192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>6329</v>
+      </c>
+      <c r="D67">
+        <v>11029</v>
+      </c>
+      <c r="E67">
+        <v>8202</v>
+      </c>
+      <c r="F67">
+        <v>74.36757638951855</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>265</v>
+      </c>
+      <c r="D68">
+        <v>383</v>
+      </c>
+      <c r="E68">
+        <v>243</v>
+      </c>
+      <c r="F68">
+        <v>63.44647519582245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <v>63</v>
+      </c>
+      <c r="D69">
+        <v>88</v>
+      </c>
+      <c r="E69">
+        <v>32</v>
+      </c>
+      <c r="F69">
+        <v>36.36363636363637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>809</v>
+      </c>
+      <c r="D70">
+        <v>1106</v>
+      </c>
+      <c r="E70">
+        <v>807</v>
+      </c>
+      <c r="F70">
+        <v>72.96564195298373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>552</v>
+      </c>
+      <c r="D71">
+        <v>943</v>
+      </c>
+      <c r="E71">
+        <v>692</v>
+      </c>
+      <c r="F71">
+        <v>73.38282078472959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F70"/>
   <sheetViews>
